--- a/biology/Botanique/Espace_Naturel_Lille_Métropole/Espace_Naturel_Lille_Métropole.xlsx
+++ b/biology/Botanique/Espace_Naturel_Lille_Métropole/Espace_Naturel_Lille_Métropole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Espace_Naturel_Lille_M%C3%A9tropole</t>
+          <t>Espace_Naturel_Lille_Métropole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">« Espace Naturel Lille Métropole » (ou ENLM) est chargé de l'aménagement, la gestion, et l'animation des espaces naturels périurbains de la Métropole européenne de Lille.
 La structure gérait en 2009 environ 1 200 hectares avec un objectif de 10 000 ha pour l'horizon 2015. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Espace_Naturel_Lille_M%C3%A9tropole</t>
+          <t>Espace_Naturel_Lille_Métropole</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ENLM a été créé sous forme d'un syndicat mixte, par arrêté préfectoral du 29 août 2002[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENLM a été créé sous forme d'un syndicat mixte, par arrêté préfectoral du 29 août 2002. 
 Il est constitué des collectivités ou groupements de collectivités présentant un projet labellisé Espace Naturel 
-Métropolitain conforme à l’objectif « Métropole Verte » tel que défini dans le schéma directeur de l’arrondissement de Lille[1]. 
+Métropolitain conforme à l’objectif « Métropole Verte » tel que défini dans le schéma directeur de l’arrondissement de Lille. 
 Du fait de l'élargissement des compétences de la communauté urbaine de Lille devenue métropole le 1er janvier 2015, la Métropole Européenne de Lille a intégré en son sein, en avril 2016, les compétences et les personnels du syndicat mixte.
 </t>
         </is>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Espace_Naturel_Lille_M%C3%A9tropole</t>
+          <t>Espace_Naturel_Lille_Métropole</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sur la base du constat d'une faible naturalité et d'un déficit en espaces verts (moins de 15 m2 d’espaces verts publics par habitant dans les années 1990), la Métropole européenne de Lille a décidé dans les années 1990 avec le Conseil général du Nord, le conseil régional du Nord-Pas-de-Calais et l’État de coordonner ses actions environnementales pour mettre en œuvre un  « schéma directeur vert » de l'arrondissement de Lille.  
 Avec une équipe d'écogardes, ENLM contribue à collecter des données environnementales, de manière à mieux évaluer, protéger, gérer et restaurer le patrimoine naturel communautaire.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Espace_Naturel_Lille_M%C3%A9tropole</t>
+          <t>Espace_Naturel_Lille_Métropole</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Territoires et parcs : les espaces naturels de l'ENLM</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ce syndicat mixte rassemble une centaine d’agents, dont une partie répartis en 5 équipes responsables de la gestion des zones suivantes, découpées en territoires :
 Val de Lys
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Espace_Naturel_Lille_M%C3%A9tropole</t>
+          <t>Espace_Naturel_Lille_Métropole</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +640,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2006, le Parc de la Deûle est lauréat du Grand Prix National du Paysage.
 En 2009, le Parc reçoit le Prix du Paysage du Conseil de l'Europe.
@@ -636,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Espace_Naturel_Lille_M%C3%A9tropole</t>
+          <t>Espace_Naturel_Lille_Métropole</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,7 +674,9 @@
           <t>Coopération transfrontalière et projets européens</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Espace Naturel Lille Métropole est activement impliqué dans différents projets et programmes d'envergure européenne :
 Le projet BiPS (BiPS Biodiversité Périurbaine / in de stadsrand)
